--- a/biology/Zoologie/Gymnophthalmus_pleei/Gymnophthalmus_pleei.xlsx
+++ b/biology/Zoologie/Gymnophthalmus_pleei/Gymnophthalmus_pleei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnophthalmus pleei est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnophthalmus pleei est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre à la Guadeloupe, à Saint-Vincent, à la Dominique, à la Martinique et à Sainte-Lucie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre à la Guadeloupe, à Saint-Vincent, à la Dominique, à la Martinique et à Sainte-Lucie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 novembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 novembre 2012) :
 Gymnophthalmus pleei pleei Bocourt, 1881
 Gymnophthalmus pleei luetkeni Bocourt, 1881
 Gymnophthalmus pleei nesydrion Thomas, 1965</t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Auguste Plée[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Auguste Plée.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bocourt, 1881 : Recherches Zoologiques pour servir à l'Histoire de la Faune de l'Amérique Centrale et du Mexique. Mission Scientifique au Mexique et dans l'Amérique Centrale, Recherches zoologiques. Part 2, sect. 1. in Duméril, Bocourt &amp; Mocquard, 1870-1909, Études sur les reptiles p. 1-1012.
 Thomas, 1965 : The smaller teiid lizards (Gymnophthalmus and Bachia) of the southeastem Caribbean. Proceedings of The Biological Society of Washington, vol. 78, p. 141-54 (texte intégral).</t>
